--- a/릴레이션.xlsx
+++ b/릴레이션.xlsx
@@ -15,9 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="한빛마트 테이블정의서" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="온라인상거래 테이블정의서" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="169">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,6 +487,222 @@
   </si>
   <si>
     <t>문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUS_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUS_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOIN_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUT_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTOMER </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUYING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,9 +749,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1065,7 +1285,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="A2:H10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1086,18 +1306,18 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1534,199 +1754,564 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H11"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>71</v>
+      <c r="A8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>78</v>
+      <c r="A10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="A11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="15">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A32:H32"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>